--- a/figures/waterfall_performance/data/waterfall_performance.xlsx
+++ b/figures/waterfall_performance/data/waterfall_performance.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Github/MSc_Thesis_Figures/figures/waterfall_performance/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Weinold\Documents\GitHub\MSc_Thesis_Figures\figures\waterfall_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B77630-8D09-F74B-9057-F475EF514933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CADDDB-1982-4394-8FC8-B98CFCBAD3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" activeTab="3" xr2:uid="{8635EE3D-B7E8-7D49-8E53-244438492FE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{8635EE3D-B7E8-7D49-8E53-244438492FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2002" sheetId="1" r:id="rId1"/>
     <sheet name="2010" sheetId="4" r:id="rId2"/>
     <sheet name="2016" sheetId="5" r:id="rId3"/>
-    <sheet name="export" sheetId="2" r:id="rId4"/>
+    <sheet name="2020" sheetId="6" r:id="rId4"/>
+    <sheet name="export" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,24 +38,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={CD235593-E46E-6C46-A8DA-10BE52156DAB}</author>
-  </authors>
-  <commentList>
-    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{CD235593-E46E-6C46-A8DA-10BE52156DAB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    36lm loss out of 129lm</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={92761815-A509-2341-97C1-F8FCA2404F1B}</author>
@@ -71,13 +55,31 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={489B8471-E4CB-2E43-BEB1-624D7D28C396}</author>
   </authors>
   <commentList>
     <comment ref="D46" authorId="0" shapeId="0" xr:uid="{489B8471-E4CB-2E43-BEB1-624D7D28C396}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    36lm loss out of 129lm</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={323502DC-7941-450F-91DD-6384AAF483C8}</author>
+  </authors>
+  <commentList>
+    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{323502DC-7941-450F-91DD-6384AAF483C8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -112,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
   <si>
     <t>index</t>
   </si>
@@ -124,9 +126,6 @@
   </si>
   <si>
     <t>1W</t>
-  </si>
-  <si>
-    <t>0.064W</t>
   </si>
   <si>
     <t>losses</t>
@@ -143,6 +142,15 @@
   <si>
     <t>0.143W</t>
   </si>
+  <si>
+    <t>0.388W</t>
+  </si>
+  <si>
+    <t>0.063W</t>
+  </si>
+  <si>
+    <t>0.326W</t>
+  </si>
 </sst>
 </file>
 
@@ -150,21 +158,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -193,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -203,8 +205,9 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +528,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C46" dT="2020-04-28T06:13:17.74" personId="{E89A98C3-65AF-3442-B798-45B8D8DB5490}" id="{CD235593-E46E-6C46-A8DA-10BE52156DAB}">
+  <threadedComment ref="D46" dT="2020-04-28T06:13:17.74" personId="{E89A98C3-65AF-3442-B798-45B8D8DB5490}" id="{92761815-A509-2341-97C1-F8FCA2404F1B}">
     <text>36lm loss out of 129lm</text>
   </threadedComment>
 </ThreadedComments>
@@ -533,7 +536,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D46" dT="2020-04-28T06:13:17.74" personId="{E89A98C3-65AF-3442-B798-45B8D8DB5490}" id="{92761815-A509-2341-97C1-F8FCA2404F1B}">
+  <threadedComment ref="D46" dT="2020-04-28T06:13:17.74" personId="{E89A98C3-65AF-3442-B798-45B8D8DB5490}" id="{489B8471-E4CB-2E43-BEB1-624D7D28C396}">
     <text>36lm loss out of 129lm</text>
   </threadedComment>
 </ThreadedComments>
@@ -541,840 +544,896 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D46" dT="2020-04-28T06:13:17.74" personId="{E89A98C3-65AF-3442-B798-45B8D8DB5490}" id="{489B8471-E4CB-2E43-BEB1-624D7D28C396}">
+  <threadedComment ref="D46" dT="2020-04-28T06:13:17.74" personId="{E89A98C3-65AF-3442-B798-45B8D8DB5490}" id="{323502DC-7941-450F-91DD-6384AAF483C8}">
     <text>36lm loss out of 129lm</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62608A7C-B36B-4543-824E-303F41AF569A}">
-  <dimension ref="A1:N47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62608A7C-B36B-4543-824E-303F41AF569A}">
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="4">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>-0.3</v>
       </c>
-      <c r="B3" s="4" cm="1">
+      <c r="B3" s="9" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">IF(CELL("row",$A3)=CELL("col",B3),$A3,0)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="4" cm="1">
+      <c r="C3" s="9" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">IF(CELL("row",$A3)=CELL("col",C3),$A3,0)</f>
         <v>-0.3</v>
       </c>
-      <c r="D3" s="4" cm="1">
+      <c r="D3" s="9" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">IF(CELL("row",$A3)=CELL("col",D3),$A3,0)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="4" cm="1">
+      <c r="E3" s="9" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">IF(CELL("row",$A3)=CELL("col",E3),$A3,0)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="4" cm="1">
+      <c r="F3" s="9" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">IF(CELL("row",$A3)=CELL("col",F3),$A3,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="4" cm="1">
+      <c r="G3" s="9" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">IF(CELL("row",$A3)=CELL("col",G3),$A3,0)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="4" cm="1">
+      <c r="H3" s="9" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">IF(CELL("row",$A3)=CELL("col",H3),$A3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4" cm="1">
+      <c r="I3" s="9" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">IF(CELL("row",$A3)=CELL("col",I3),$A3,0)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="4" cm="1">
+      <c r="J3" s="9" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">IF(CELL("row",$A3)=CELL("col",J3),$A3,0)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4" cm="1">
+      <c r="K3" s="9" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(CELL("row",$A3)=CELL("col",K3),$A3,0)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="4" cm="1">
+      <c r="L3" s="9" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">IF(CELL("row",$A3)=CELL("col",L3),$A3,0)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="4" cm="1">
+      <c r="M3" s="9" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">IF(CELL("row",$A3)=CELL("col",M3),$A3,0)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="4" cm="1">
+      <c r="N3" s="9" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">IF(CELL("row",$A3)=CELL("col",N3),$A3,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="4">
+      <c r="O3" s="9" cm="1">
+        <f t="array" aca="1" ref="O3" ca="1">IF(CELL("row",$A3)=CELL("col",O3),$A3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>-0.315</v>
       </c>
-      <c r="B4" s="4" cm="1">
+      <c r="B4" s="9" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">IF(CELL("row",$A4)=CELL("col",B4),$A4,0)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="4" cm="1">
+      <c r="C4" s="9" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">IF(CELL("row",$A4)=CELL("col",C4),$A4,0)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="4" cm="1">
+      <c r="D4" s="9" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">IF(CELL("row",$A4)=CELL("col",D4),$A4,0)</f>
         <v>-0.315</v>
       </c>
-      <c r="E4" s="4" cm="1">
+      <c r="E4" s="9" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">IF(CELL("row",$A4)=CELL("col",E4),$A4,0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="4" cm="1">
+      <c r="F4" s="9" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">IF(CELL("row",$A4)=CELL("col",F4),$A4,0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="4" cm="1">
+      <c r="G4" s="9" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">IF(CELL("row",$A4)=CELL("col",G4),$A4,0)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="4" cm="1">
+      <c r="H4" s="9" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">IF(CELL("row",$A4)=CELL("col",H4),$A4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4" cm="1">
+      <c r="I4" s="9" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">IF(CELL("row",$A4)=CELL("col",I4),$A4,0)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="4" cm="1">
+      <c r="J4" s="9" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">IF(CELL("row",$A4)=CELL("col",J4),$A4,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="4" cm="1">
+      <c r="K4" s="9" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">IF(CELL("row",$A4)=CELL("col",K4),$A4,0)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="4" cm="1">
+      <c r="L4" s="9" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">IF(CELL("row",$A4)=CELL("col",L4),$A4,0)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="4" cm="1">
+      <c r="M4" s="9" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">IF(CELL("row",$A4)=CELL("col",M4),$A4,0)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="4" cm="1">
+      <c r="N4" s="9" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">IF(CELL("row",$A4)=CELL("col",N4),$A4,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="4">
+      <c r="O4" s="9" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">IF(CELL("row",$A4)=CELL("col",O4),$A4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>-0.13474999999999998</v>
       </c>
-      <c r="B5" s="4" cm="1">
+      <c r="B5" s="9" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">IF(CELL("row",$A5)=CELL("col",B5),$A5,0)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="4" cm="1">
+      <c r="C5" s="9" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">IF(CELL("row",$A5)=CELL("col",C5),$A5,0)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="4" cm="1">
+      <c r="D5" s="9" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">IF(CELL("row",$A5)=CELL("col",D5),$A5,0)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="4" cm="1">
+      <c r="E5" s="9" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">IF(CELL("row",$A5)=CELL("col",E5),$A5,0)</f>
         <v>-0.13474999999999998</v>
       </c>
-      <c r="F5" s="4" cm="1">
+      <c r="F5" s="9" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">IF(CELL("row",$A5)=CELL("col",F5),$A5,0)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="4" cm="1">
+      <c r="G5" s="9" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">IF(CELL("row",$A5)=CELL("col",G5),$A5,0)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="4" cm="1">
+      <c r="H5" s="9" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">IF(CELL("row",$A5)=CELL("col",H5),$A5,0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="4" cm="1">
+      <c r="I5" s="9" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">IF(CELL("row",$A5)=CELL("col",I5),$A5,0)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="4" cm="1">
+      <c r="J5" s="9" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">IF(CELL("row",$A5)=CELL("col",J5),$A5,0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="4" cm="1">
+      <c r="K5" s="9" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">IF(CELL("row",$A5)=CELL("col",K5),$A5,0)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="4" cm="1">
+      <c r="L5" s="9" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">IF(CELL("row",$A5)=CELL("col",L5),$A5,0)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="4" cm="1">
+      <c r="M5" s="9" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">IF(CELL("row",$A5)=CELL("col",M5),$A5,0)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="4" cm="1">
+      <c r="N5" s="9" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">IF(CELL("row",$A5)=CELL("col",N5),$A5,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="4">
+      <c r="O5" s="9" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">IF(CELL("row",$A5)=CELL("col",O5),$A5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>-0.10009999999999999</v>
       </c>
-      <c r="B6" s="4" cm="1">
+      <c r="B6" s="9" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">IF(CELL("row",$A6)=CELL("col",B6),$A6,0)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="4" cm="1">
+      <c r="C6" s="9" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IF(CELL("row",$A6)=CELL("col",C6),$A6,0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="4" cm="1">
+      <c r="D6" s="9" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">IF(CELL("row",$A6)=CELL("col",D6),$A6,0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="4" cm="1">
+      <c r="E6" s="9" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">IF(CELL("row",$A6)=CELL("col",E6),$A6,0)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="4" cm="1">
+      <c r="F6" s="9" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">IF(CELL("row",$A6)=CELL("col",F6),$A6,0)</f>
         <v>-0.10009999999999999</v>
       </c>
-      <c r="G6" s="4" cm="1">
+      <c r="G6" s="9" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">IF(CELL("row",$A6)=CELL("col",G6),$A6,0)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="4" cm="1">
+      <c r="H6" s="9" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">IF(CELL("row",$A6)=CELL("col",H6),$A6,0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="4" cm="1">
+      <c r="I6" s="9" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">IF(CELL("row",$A6)=CELL("col",I6),$A6,0)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="4" cm="1">
+      <c r="J6" s="9" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">IF(CELL("row",$A6)=CELL("col",J6),$A6,0)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="4" cm="1">
+      <c r="K6" s="9" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">IF(CELL("row",$A6)=CELL("col",K6),$A6,0)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="4" cm="1">
+      <c r="L6" s="9" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">IF(CELL("row",$A6)=CELL("col",L6),$A6,0)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="4" cm="1">
+      <c r="M6" s="9" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">IF(CELL("row",$A6)=CELL("col",M6),$A6,0)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="4" cm="1">
+      <c r="N6" s="9" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">IF(CELL("row",$A6)=CELL("col",N6),$A6,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="4">
-        <v>-1.8844537815126045E-3</v>
-      </c>
-      <c r="B7" s="4" cm="1">
+      <c r="O6" s="9" cm="1">
+        <f t="array" aca="1" ref="O6" ca="1">IF(CELL("row",$A6)=CELL("col",O6),$A6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>-9.0089999999999996E-3</v>
+      </c>
+      <c r="B7" s="9" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">IF(CELL("row",$A7)=CELL("col",B7),$A7,0)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="4" cm="1">
+      <c r="C7" s="9" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">IF(CELL("row",$A7)=CELL("col",C7),$A7,0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="4" cm="1">
+      <c r="D7" s="9" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">IF(CELL("row",$A7)=CELL("col",D7),$A7,0)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="4" cm="1">
+      <c r="E7" s="9" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">IF(CELL("row",$A7)=CELL("col",E7),$A7,0)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="4" cm="1">
+      <c r="F7" s="9" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">IF(CELL("row",$A7)=CELL("col",F7),$A7,0)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="4" cm="1">
+      <c r="G7" s="9" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">IF(CELL("row",$A7)=CELL("col",G7),$A7,0)</f>
-        <v>-1.8844537815126045E-3</v>
-      </c>
-      <c r="H7" s="4" cm="1">
+        <v>-9.0089999999999996E-3</v>
+      </c>
+      <c r="H7" s="9" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">IF(CELL("row",$A7)=CELL("col",H7),$A7,0)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="4" cm="1">
+      <c r="I7" s="9" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">IF(CELL("row",$A7)=CELL("col",I7),$A7,0)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="4" cm="1">
+      <c r="J7" s="9" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">IF(CELL("row",$A7)=CELL("col",J7),$A7,0)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="4" cm="1">
+      <c r="K7" s="9" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">IF(CELL("row",$A7)=CELL("col",K7),$A7,0)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="4" cm="1">
+      <c r="L7" s="9" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">IF(CELL("row",$A7)=CELL("col",L7),$A7,0)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="4" cm="1">
+      <c r="M7" s="9" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">IF(CELL("row",$A7)=CELL("col",M7),$A7,0)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="4" cm="1">
+      <c r="N7" s="9" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">IF(CELL("row",$A7)=CELL("col",N7),$A7,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="4">
-        <v>-1.0466911764705881E-2</v>
-      </c>
-      <c r="B8" s="4" cm="1">
+      <c r="O7" s="9" cm="1">
+        <f t="array" aca="1" ref="O7" ca="1">IF(CELL("row",$A7)=CELL("col",O7),$A7,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">IF(CELL("row",$A8)=CELL("col",B8),$A8,0)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="4" cm="1">
+      <c r="C8" s="9" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">IF(CELL("row",$A8)=CELL("col",C8),$A8,0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="4" cm="1">
+      <c r="D8" s="9" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">IF(CELL("row",$A8)=CELL("col",D8),$A8,0)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="4" cm="1">
+      <c r="E8" s="9" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">IF(CELL("row",$A8)=CELL("col",E8),$A8,0)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="4" cm="1">
+      <c r="F8" s="9" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">IF(CELL("row",$A8)=CELL("col",F8),$A8,0)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="4" cm="1">
+      <c r="G8" s="9" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">IF(CELL("row",$A8)=CELL("col",G8),$A8,0)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="4" cm="1">
+      <c r="H8" s="9" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">IF(CELL("row",$A8)=CELL("col",H8),$A8,0)</f>
-        <v>-1.0466911764705881E-2</v>
-      </c>
-      <c r="I8" s="4" cm="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">IF(CELL("row",$A8)=CELL("col",I8),$A8,0)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="4" cm="1">
+      <c r="J8" s="9" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">IF(CELL("row",$A8)=CELL("col",J8),$A8,0)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="4" cm="1">
+      <c r="K8" s="9" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">IF(CELL("row",$A8)=CELL("col",K8),$A8,0)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="4" cm="1">
+      <c r="L8" s="9" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">IF(CELL("row",$A8)=CELL("col",L8),$A8,0)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="4" cm="1">
+      <c r="M8" s="9" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">IF(CELL("row",$A8)=CELL("col",M8),$A8,0)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="4" cm="1">
+      <c r="N8" s="9" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">IF(CELL("row",$A8)=CELL("col",N8),$A8,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="5">
-        <v>-2.7318639705882344E-2</v>
-      </c>
-      <c r="B9" s="4" cm="1">
+      <c r="O8" s="9" cm="1">
+        <f t="array" aca="1" ref="O8" ca="1">IF(CELL("row",$A8)=CELL("col",O8),$A8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">IF(CELL("row",$A9)=CELL("col",B9),$A9,0)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="4" cm="1">
+      <c r="C9" s="9" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">IF(CELL("row",$A9)=CELL("col",C9),$A9,0)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="4" cm="1">
+      <c r="D9" s="9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">IF(CELL("row",$A9)=CELL("col",D9),$A9,0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="4" cm="1">
+      <c r="E9" s="9" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">IF(CELL("row",$A9)=CELL("col",E9),$A9,0)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="4" cm="1">
+      <c r="F9" s="9" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">IF(CELL("row",$A9)=CELL("col",F9),$A9,0)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="4" cm="1">
+      <c r="G9" s="9" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">IF(CELL("row",$A9)=CELL("col",G9),$A9,0)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="4" cm="1">
+      <c r="H9" s="9" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">IF(CELL("row",$A9)=CELL("col",H9),$A9,0)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="4" cm="1">
+      <c r="I9" s="9" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">IF(CELL("row",$A9)=CELL("col",I9),$A9,0)</f>
-        <v>-2.7318639705882344E-2</v>
-      </c>
-      <c r="J9" s="4" cm="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">IF(CELL("row",$A9)=CELL("col",J9),$A9,0)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="4" cm="1">
+      <c r="K9" s="9" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">IF(CELL("row",$A9)=CELL("col",K9),$A9,0)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="4" cm="1">
+      <c r="L9" s="9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">IF(CELL("row",$A9)=CELL("col",L9),$A9,0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="4" cm="1">
+      <c r="M9" s="9" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">IF(CELL("row",$A9)=CELL("col",M9),$A9,0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="4" cm="1">
+      <c r="N9" s="9" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">IF(CELL("row",$A9)=CELL("col",N9),$A9,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="5">
-        <v>-1.3376713235294116E-2</v>
-      </c>
-      <c r="B10" s="4" cm="1">
+      <c r="O9" s="9" cm="1">
+        <f t="array" aca="1" ref="O9" ca="1">IF(CELL("row",$A9)=CELL("col",O9),$A9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">IF(CELL("row",$A10)=CELL("col",B10),$A10,0)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="4" cm="1">
+      <c r="C10" s="9" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">IF(CELL("row",$A10)=CELL("col",C10),$A10,0)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="4" cm="1">
+      <c r="D10" s="9" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">IF(CELL("row",$A10)=CELL("col",D10),$A10,0)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="4" cm="1">
+      <c r="E10" s="9" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">IF(CELL("row",$A10)=CELL("col",E10),$A10,0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="4" cm="1">
+      <c r="F10" s="9" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">IF(CELL("row",$A10)=CELL("col",F10),$A10,0)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="4" cm="1">
+      <c r="G10" s="9" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">IF(CELL("row",$A10)=CELL("col",G10),$A10,0)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="4" cm="1">
+      <c r="H10" s="9" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">IF(CELL("row",$A10)=CELL("col",H10),$A10,0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="4" cm="1">
+      <c r="I10" s="9" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">IF(CELL("row",$A10)=CELL("col",I10),$A10,0)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="4" cm="1">
+      <c r="J10" s="9" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">IF(CELL("row",$A10)=CELL("col",J10),$A10,0)</f>
-        <v>-1.3376713235294116E-2</v>
-      </c>
-      <c r="K10" s="4" cm="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">IF(CELL("row",$A10)=CELL("col",K10),$A10,0)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="4" cm="1">
+      <c r="L10" s="9" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">IF(CELL("row",$A10)=CELL("col",L10),$A10,0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="4" cm="1">
+      <c r="M10" s="9" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">IF(CELL("row",$A10)=CELL("col",M10),$A10,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="4" cm="1">
+      <c r="N10" s="9" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">IF(CELL("row",$A10)=CELL("col",N10),$A10,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="5">
-        <v>-3.6255252100840327E-3</v>
-      </c>
-      <c r="B11" s="4" cm="1">
+      <c r="O10" s="9" cm="1">
+        <f t="array" aca="1" ref="O10" ca="1">IF(CELL("row",$A10)=CELL("col",O10),$A10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>-5.2552499999999995E-3</v>
+      </c>
+      <c r="B11" s="9" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">IF(CELL("row",$A11)=CELL("col",B11),$A11,0)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="4" cm="1">
+      <c r="C11" s="9" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">IF(CELL("row",$A11)=CELL("col",C11),$A11,0)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="4" cm="1">
+      <c r="D11" s="9" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">IF(CELL("row",$A11)=CELL("col",D11),$A11,0)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="4" cm="1">
+      <c r="E11" s="9" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">IF(CELL("row",$A11)=CELL("col",E11),$A11,0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="4" cm="1">
+      <c r="F11" s="9" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">IF(CELL("row",$A11)=CELL("col",F11),$A11,0)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="4" cm="1">
+      <c r="G11" s="9" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">IF(CELL("row",$A11)=CELL("col",G11),$A11,0)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="4" cm="1">
+      <c r="H11" s="9" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">IF(CELL("row",$A11)=CELL("col",H11),$A11,0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="4" cm="1">
+      <c r="I11" s="9" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">IF(CELL("row",$A11)=CELL("col",I11),$A11,0)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="4" cm="1">
+      <c r="J11" s="9" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">IF(CELL("row",$A11)=CELL("col",J11),$A11,0)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="4" cm="1">
+      <c r="K11" s="9" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">IF(CELL("row",$A11)=CELL("col",K11),$A11,0)</f>
-        <v>-3.6255252100840327E-3</v>
-      </c>
-      <c r="L11" s="4" cm="1">
+        <v>-5.2552499999999995E-3</v>
+      </c>
+      <c r="L11" s="9" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">IF(CELL("row",$A11)=CELL("col",L11),$A11,0)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="4" cm="1">
+      <c r="M11" s="9" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">IF(CELL("row",$A11)=CELL("col",M11),$A11,0)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="4" cm="1">
+      <c r="N11" s="9" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">IF(CELL("row",$A11)=CELL("col",N11),$A11,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="5">
-        <v>-5.8733508403361325E-3</v>
-      </c>
-      <c r="B12" s="4" cm="1">
+      <c r="O11" s="9" cm="1">
+        <f t="array" aca="1" ref="O11" ca="1">IF(CELL("row",$A11)=CELL("col",O11),$A11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>-2.4962437499999993E-2</v>
+      </c>
+      <c r="B12" s="9" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">IF(CELL("row",$A12)=CELL("col",B12),$A12,0)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="4" cm="1">
+      <c r="C12" s="9" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">IF(CELL("row",$A12)=CELL("col",C12),$A12,0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="4" cm="1">
+      <c r="D12" s="9" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">IF(CELL("row",$A12)=CELL("col",D12),$A12,0)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="4" cm="1">
+      <c r="E12" s="9" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">IF(CELL("row",$A12)=CELL("col",E12),$A12,0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="4" cm="1">
+      <c r="F12" s="9" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">IF(CELL("row",$A12)=CELL("col",F12),$A12,0)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="4" cm="1">
+      <c r="G12" s="9" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">IF(CELL("row",$A12)=CELL("col",G12),$A12,0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="4" cm="1">
+      <c r="H12" s="9" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">IF(CELL("row",$A12)=CELL("col",H12),$A12,0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="4" cm="1">
+      <c r="I12" s="9" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">IF(CELL("row",$A12)=CELL("col",I12),$A12,0)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="4" cm="1">
+      <c r="J12" s="9" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">IF(CELL("row",$A12)=CELL("col",J12),$A12,0)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="4" cm="1">
+      <c r="K12" s="9" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">IF(CELL("row",$A12)=CELL("col",K12),$A12,0)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="4" cm="1">
+      <c r="L12" s="9" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">IF(CELL("row",$A12)=CELL("col",L12),$A12,0)</f>
-        <v>-5.8733508403361325E-3</v>
-      </c>
-      <c r="M12" s="4" cm="1">
+        <v>-2.4962437499999993E-2</v>
+      </c>
+      <c r="M12" s="9" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">IF(CELL("row",$A12)=CELL("col",M12),$A12,0)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="4" cm="1">
+      <c r="N12" s="9" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">IF(CELL("row",$A12)=CELL("col",N12),$A12,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="5">
-        <v>-5.3512752100840326E-3</v>
-      </c>
-      <c r="B13" s="4" cm="1">
+      <c r="O12" s="9" cm="1">
+        <f t="array" aca="1" ref="O12" ca="1">IF(CELL("row",$A12)=CELL("col",O12),$A12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>-2.2466193749999995E-2</v>
+      </c>
+      <c r="B13" s="9" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">IF(CELL("row",$A13)=CELL("col",B13),$A13,0)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="4" cm="1">
+      <c r="C13" s="9" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">IF(CELL("row",$A13)=CELL("col",C13),$A13,0)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="4" cm="1">
+      <c r="D13" s="9" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">IF(CELL("row",$A13)=CELL("col",D13),$A13,0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="4" cm="1">
+      <c r="E13" s="9" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">IF(CELL("row",$A13)=CELL("col",E13),$A13,0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="4" cm="1">
+      <c r="F13" s="9" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">IF(CELL("row",$A13)=CELL("col",F13),$A13,0)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="4" cm="1">
+      <c r="G13" s="9" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">IF(CELL("row",$A13)=CELL("col",G13),$A13,0)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="4" cm="1">
+      <c r="H13" s="9" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">IF(CELL("row",$A13)=CELL("col",H13),$A13,0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="4" cm="1">
+      <c r="I13" s="9" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">IF(CELL("row",$A13)=CELL("col",I13),$A13,0)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="4" cm="1">
+      <c r="J13" s="9" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">IF(CELL("row",$A13)=CELL("col",J13),$A13,0)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="4" cm="1">
+      <c r="K13" s="9" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">IF(CELL("row",$A13)=CELL("col",K13),$A13,0)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="4" cm="1">
+      <c r="L13" s="9" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">IF(CELL("row",$A13)=CELL("col",L13),$A13,0)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="4" cm="1">
+      <c r="M13" s="9" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">IF(CELL("row",$A13)=CELL("col",M13),$A13,0)</f>
-        <v>-5.3512752100840326E-3</v>
-      </c>
-      <c r="N13" s="4" cm="1">
+        <v>-2.2466193749999995E-2</v>
+      </c>
+      <c r="N13" s="9" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">IF(CELL("row",$A13)=CELL("col",N13),$A13,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="5">
-        <v>-1.8138949159663863E-2</v>
-      </c>
-      <c r="B14" s="4" cm="1">
+      <c r="O13" s="9" cm="1">
+        <f t="array" aca="1" ref="O13" ca="1">IF(CELL("row",$A13)=CELL("col",O13),$A13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>-2.5652564437499994E-2</v>
+      </c>
+      <c r="B14" s="9" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">IF(CELL("row",$A14)=CELL("col",B14),$A14,0)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="4" cm="1">
+      <c r="C14" s="9" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">IF(CELL("row",$A14)=CELL("col",C14),$A14,0)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="4" cm="1">
+      <c r="D14" s="9" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">IF(CELL("row",$A14)=CELL("col",D14),$A14,0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="4" cm="1">
+      <c r="E14" s="9" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">IF(CELL("row",$A14)=CELL("col",E14),$A14,0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="4" cm="1">
+      <c r="F14" s="9" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">IF(CELL("row",$A14)=CELL("col",F14),$A14,0)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="4" cm="1">
+      <c r="G14" s="9" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">IF(CELL("row",$A14)=CELL("col",G14),$A14,0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="4" cm="1">
+      <c r="H14" s="9" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">IF(CELL("row",$A14)=CELL("col",H14),$A14,0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="4" cm="1">
+      <c r="I14" s="9" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">IF(CELL("row",$A14)=CELL("col",I14),$A14,0)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="4" cm="1">
+      <c r="J14" s="9" cm="1">
         <f t="array" aca="1" ref="J14" ca="1">IF(CELL("row",$A14)=CELL("col",J14),$A14,0)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="4" cm="1">
+      <c r="K14" s="9" cm="1">
         <f t="array" aca="1" ref="K14" ca="1">IF(CELL("row",$A14)=CELL("col",K14),$A14,0)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="4" cm="1">
+      <c r="L14" s="9" cm="1">
         <f t="array" aca="1" ref="L14" ca="1">IF(CELL("row",$A14)=CELL("col",L14),$A14,0)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="4" cm="1">
+      <c r="M14" s="9" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">IF(CELL("row",$A14)=CELL("col",M14),$A14,0)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="4" cm="1">
+      <c r="N14" s="9" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">IF(CELL("row",$A14)=CELL("col",N14),$A14,0)</f>
-        <v>-1.8138949159663863E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="5">
-        <v>6.4310819747899151E-2</v>
-      </c>
-      <c r="B15" s="4" cm="1">
+        <v>-2.5652564437499994E-2</v>
+      </c>
+      <c r="O14" s="9" cm="1">
+        <f t="array" aca="1" ref="O14" ca="1">IF(CELL("row",$A14)=CELL("col",O14),$A14,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>6.2804554312499983E-2</v>
+      </c>
+      <c r="B15" s="9" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">IF(CELL("row",$A15)=CELL("col",B15),$A15,0)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="4" cm="1">
+      <c r="C15" s="9" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">IF(CELL("row",$A15)=CELL("col",C15),$A15,0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="4" cm="1">
+      <c r="D15" s="9" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">IF(CELL("row",$A15)=CELL("col",D15),$A15,0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="4" cm="1">
+      <c r="E15" s="9" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">IF(CELL("row",$A15)=CELL("col",E15),$A15,0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="4" cm="1">
+      <c r="F15" s="9" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">IF(CELL("row",$A15)=CELL("col",F15),$A15,0)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="4" cm="1">
+      <c r="G15" s="9" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">IF(CELL("row",$A15)=CELL("col",G15),$A15,0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="4" cm="1">
+      <c r="H15" s="9" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">IF(CELL("row",$A15)=CELL("col",H15),$A15,0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="4" cm="1">
+      <c r="I15" s="9" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">IF(CELL("row",$A15)=CELL("col",I15),$A15,0)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="4" cm="1">
+      <c r="J15" s="9" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">IF(CELL("row",$A15)=CELL("col",J15),$A15,0)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="4" cm="1">
+      <c r="K15" s="9" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">IF(CELL("row",$A15)=CELL("col",K15),$A15,0)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="4" cm="1">
+      <c r="L15" s="9" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">IF(CELL("row",$A15)=CELL("col",L15),$A15,0)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="4" cm="1">
+      <c r="M15" s="9" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">IF(CELL("row",$A15)=CELL("col",M15),$A15,0)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="4" cm="1">
+      <c r="N15" s="9" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">IF(CELL("row",$A15)=CELL("col",N15),$A15,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="O15" s="9" cm="1">
+        <f t="array" aca="1" ref="O15" ca="1">IF(CELL("row",$A15)=CELL("col",O15),$A15,0)</f>
+        <v>6.2804554312499983E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
+        <f>A2</f>
         <v>1</v>
       </c>
       <c r="B18" s="4">
@@ -1382,16 +1441,17 @@
         <v>1</v>
       </c>
       <c r="C18" s="4">
-        <f>B18-0.0375</f>
-        <v>0.96250000000000002</v>
+        <f>B18-0.0425</f>
+        <v>0.95750000000000002</v>
       </c>
       <c r="D18" s="9">
-        <f>B18-0.0625</f>
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <f>B18-0.0675</f>
+        <v>0.9325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
+        <f t="shared" ref="A19:A31" si="0">A3</f>
         <v>-0.3</v>
       </c>
       <c r="B19" s="4">
@@ -1399,224 +1459,236 @@
         <v>0.7</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" ref="C19:C31" si="0">B19-0.0375</f>
-        <v>0.66249999999999998</v>
+        <f t="shared" ref="C19:C31" si="1">B19-0.0425</f>
+        <v>0.65749999999999997</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" ref="D19:D31" si="1">B19-0.0625</f>
-        <v>0.63749999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <f t="shared" ref="D19:D31" si="2">B19-0.0675</f>
+        <v>0.63249999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
+        <f t="shared" si="0"/>
         <v>-0.315</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" ref="B20:B30" si="2">B19+A20</f>
+        <f t="shared" ref="B20:B30" si="3">B19+A20</f>
         <v>0.38499999999999995</v>
       </c>
       <c r="C20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34249999999999997</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="2"/>
+        <v>0.31749999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <f t="shared" si="0"/>
-        <v>0.34749999999999998</v>
-      </c>
-      <c r="D20" s="9">
+        <v>-0.13474999999999998</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="3"/>
+        <v>0.25024999999999997</v>
+      </c>
+      <c r="C21" s="4">
         <f t="shared" si="1"/>
-        <v>0.32249999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
-        <v>-0.13474999999999998</v>
-      </c>
-      <c r="B21" s="4">
+        <v>0.20774999999999996</v>
+      </c>
+      <c r="D21" s="9">
         <f t="shared" si="2"/>
-        <v>0.25024999999999997</v>
-      </c>
-      <c r="C21" s="4">
+        <v>0.18274999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <f t="shared" si="0"/>
-        <v>0.21274999999999997</v>
-      </c>
-      <c r="D21" s="9">
+        <v>-0.10009999999999999</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="3"/>
+        <v>0.15014999999999998</v>
+      </c>
+      <c r="C22" s="4">
         <f t="shared" si="1"/>
-        <v>0.18774999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
-        <v>-0.10009999999999999</v>
-      </c>
-      <c r="B22" s="4">
+        <v>0.10764999999999997</v>
+      </c>
+      <c r="D22" s="9">
         <f t="shared" si="2"/>
-        <v>0.15014999999999998</v>
-      </c>
-      <c r="C22" s="4">
+        <v>8.2649999999999973E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <f t="shared" si="0"/>
-        <v>0.11264999999999997</v>
-      </c>
-      <c r="D22" s="9">
+        <v>-9.0089999999999996E-3</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="3"/>
+        <v>0.14114099999999999</v>
+      </c>
+      <c r="C23" s="4">
         <f t="shared" si="1"/>
-        <v>8.7649999999999978E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
-        <v>-1.8844537815126045E-3</v>
-      </c>
-      <c r="B23" s="4">
+        <v>9.8640999999999979E-2</v>
+      </c>
+      <c r="D23" s="9">
         <f t="shared" si="2"/>
-        <v>0.14826554621848737</v>
-      </c>
-      <c r="C23" s="4">
+        <v>7.3640999999999984E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <f t="shared" si="0"/>
-        <v>0.11076554621848736</v>
-      </c>
-      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="3"/>
+        <v>0.14114099999999999</v>
+      </c>
+      <c r="C24" s="4">
         <f t="shared" si="1"/>
-        <v>8.5765546218487365E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
-        <v>-1.0466911764705881E-2</v>
-      </c>
-      <c r="B24" s="4">
+        <v>9.8640999999999979E-2</v>
+      </c>
+      <c r="D24" s="9">
         <f t="shared" si="2"/>
-        <v>0.13779863445378149</v>
-      </c>
-      <c r="C24" s="4">
+        <v>7.3640999999999984E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
         <f t="shared" si="0"/>
-        <v>0.10029863445378148</v>
-      </c>
-      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.14114099999999999</v>
+      </c>
+      <c r="C25" s="4">
         <f t="shared" si="1"/>
-        <v>7.5298634453781488E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5">
-        <v>-2.7318639705882344E-2</v>
-      </c>
-      <c r="B25" s="4">
+        <v>9.8640999999999979E-2</v>
+      </c>
+      <c r="D25" s="9">
         <f t="shared" si="2"/>
-        <v>0.11047999474789914</v>
-      </c>
-      <c r="C25" s="4">
+        <v>7.3640999999999984E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
         <f t="shared" si="0"/>
-        <v>7.2979994747899152E-2</v>
-      </c>
-      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="3"/>
+        <v>0.14114099999999999</v>
+      </c>
+      <c r="C26" s="4">
         <f t="shared" si="1"/>
-        <v>4.7979994747899143E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5">
-        <v>-1.3376713235294116E-2</v>
-      </c>
-      <c r="B26" s="4">
+        <v>9.8640999999999979E-2</v>
+      </c>
+      <c r="D26" s="9">
         <f t="shared" si="2"/>
-        <v>9.7103281512605027E-2</v>
-      </c>
-      <c r="C26" s="4">
+        <v>7.3640999999999984E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
         <f t="shared" si="0"/>
-        <v>5.9603281512605029E-2</v>
-      </c>
-      <c r="D26" s="9">
+        <v>-5.2552499999999995E-3</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="3"/>
+        <v>0.13588575</v>
+      </c>
+      <c r="C27" s="4">
         <f t="shared" si="1"/>
-        <v>3.4603281512605027E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5">
-        <v>-3.6255252100840327E-3</v>
-      </c>
-      <c r="B27" s="4">
+        <v>9.338574999999999E-2</v>
+      </c>
+      <c r="D27" s="9">
         <f t="shared" si="2"/>
-        <v>9.347775630252099E-2</v>
-      </c>
-      <c r="C27" s="4">
+        <v>6.8385749999999995E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
         <f t="shared" si="0"/>
-        <v>5.5977756302520991E-2</v>
-      </c>
-      <c r="D27" s="9">
+        <v>-2.4962437499999993E-2</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11092331250000001</v>
+      </c>
+      <c r="C28" s="4">
         <f t="shared" si="1"/>
-        <v>3.097775630252099E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5">
-        <v>-5.8733508403361325E-3</v>
-      </c>
-      <c r="B28" s="4">
+        <v>6.84233125E-2</v>
+      </c>
+      <c r="D28" s="9">
         <f t="shared" si="2"/>
-        <v>8.7604405462184856E-2</v>
-      </c>
-      <c r="C28" s="4">
+        <v>4.3423312500000005E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
         <f t="shared" si="0"/>
-        <v>5.0104405462184858E-2</v>
-      </c>
-      <c r="D28" s="9">
+        <v>-2.2466193749999995E-2</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="3"/>
+        <v>8.8457118750000008E-2</v>
+      </c>
+      <c r="C29" s="4">
         <f t="shared" si="1"/>
-        <v>2.5104405462184856E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5">
-        <v>-5.3512752100840326E-3</v>
-      </c>
-      <c r="B29" s="4">
+        <v>4.5957118750000005E-2</v>
+      </c>
+      <c r="D29" s="9">
         <f t="shared" si="2"/>
-        <v>8.225313025210082E-2</v>
-      </c>
-      <c r="C29" s="4">
+        <v>2.0957118750000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <f t="shared" si="0"/>
-        <v>4.4753130252100821E-2</v>
-      </c>
-      <c r="D29" s="9">
+        <v>-2.5652564437499994E-2</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="3"/>
+        <v>6.2804554312500011E-2</v>
+      </c>
+      <c r="C30" s="4">
         <f t="shared" si="1"/>
-        <v>1.975313025210082E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5">
-        <v>-1.8138949159663863E-2</v>
-      </c>
-      <c r="B30" s="4">
+        <v>2.0304554312500007E-2</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="2"/>
-        <v>6.4114181092436953E-2</v>
-      </c>
-      <c r="C30" s="4">
+        <v>-4.6954456874999939E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
         <f t="shared" si="0"/>
-        <v>2.6614181092436955E-2</v>
-      </c>
-      <c r="D30" s="9">
-        <f t="shared" si="1"/>
-        <v>1.6141810924369532E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5">
-        <v>6.4310819747899151E-2</v>
+        <v>6.2804554312499983E-2</v>
       </c>
       <c r="B31" s="4">
         <f>A31</f>
-        <v>6.4310819747899151E-2</v>
+        <v>6.2804554312499983E-2</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6810819747899152E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.030455431249998E-2</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="1"/>
-        <v>1.8108197478991506E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>-4.6954456875000217E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>0</v>
       </c>
@@ -1626,9 +1698,6 @@
       <c r="C33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="F33" s="5" t="s">
         <v>0</v>
       </c>
@@ -1639,359 +1708,324 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>0</v>
       </c>
       <c r="B34" s="9">
         <f>C18</f>
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="C34" s="5" t="s">
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <f>D18</f>
+        <v>0.9325</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="8">
-        <f>A2</f>
-        <v>1</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0.9375</v>
-      </c>
-      <c r="H34" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>1</v>
       </c>
       <c r="B35" s="9">
-        <f t="shared" ref="B35:B47" si="3">C19</f>
-        <v>0.66249999999999998</v>
+        <f t="shared" ref="B35:B47" si="4">C19</f>
+        <v>0.65749999999999997</v>
       </c>
       <c r="C35" s="6">
         <v>0.3</v>
       </c>
-      <c r="D35" s="8">
-        <f>A3</f>
-        <v>-0.3</v>
-      </c>
+      <c r="D35" s="8"/>
       <c r="F35" s="5">
         <v>1</v>
       </c>
       <c r="G35" s="9">
-        <v>0.63749999999999996</v>
+        <f t="shared" ref="G35:G46" si="5">D19</f>
+        <v>0.63249999999999995</v>
       </c>
       <c r="H35" s="8">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>2</v>
       </c>
       <c r="B36" s="9">
-        <f t="shared" si="3"/>
-        <v>0.34749999999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.34249999999999997</v>
       </c>
       <c r="C36" s="6">
         <v>0.45</v>
       </c>
-      <c r="D36" s="8">
-        <f>A4</f>
-        <v>-0.315</v>
-      </c>
+      <c r="D36" s="8"/>
       <c r="F36" s="5">
         <v>2</v>
       </c>
       <c r="G36" s="9">
-        <v>0.32249999999999995</v>
+        <f t="shared" si="5"/>
+        <v>0.31749999999999995</v>
       </c>
       <c r="H36" s="8">
         <v>-0.315</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>3</v>
       </c>
       <c r="B37" s="9">
-        <f t="shared" si="3"/>
-        <v>0.21274999999999997</v>
+        <f t="shared" si="4"/>
+        <v>0.20774999999999996</v>
       </c>
       <c r="C37" s="6">
         <v>0.35</v>
       </c>
-      <c r="D37" s="8">
-        <f>A5</f>
-        <v>-0.13474999999999998</v>
-      </c>
+      <c r="D37" s="8"/>
       <c r="F37" s="5">
         <v>3</v>
       </c>
       <c r="G37" s="9">
-        <v>0.18774999999999997</v>
+        <f t="shared" si="5"/>
+        <v>0.18274999999999997</v>
       </c>
       <c r="H37" s="8">
         <v>-0.13474999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>4</v>
       </c>
       <c r="B38" s="9">
-        <f t="shared" si="3"/>
-        <v>0.11264999999999997</v>
+        <f t="shared" si="4"/>
+        <v>0.10764999999999997</v>
       </c>
       <c r="C38" s="6">
         <v>0.4</v>
       </c>
-      <c r="D38" s="8">
-        <f>A6</f>
-        <v>-0.10009999999999999</v>
-      </c>
+      <c r="D38" s="8"/>
       <c r="F38" s="5">
         <v>4</v>
       </c>
       <c r="G38" s="9">
-        <v>8.7649999999999978E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.2649999999999973E-2</v>
       </c>
       <c r="H38" s="8">
         <v>-0.10009999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>5</v>
       </c>
       <c r="B39" s="9">
-        <f t="shared" si="3"/>
-        <v>0.11076554621848736</v>
+        <f t="shared" si="4"/>
+        <v>9.8640999999999979E-2</v>
       </c>
       <c r="C39" s="6">
         <v>0.2</v>
       </c>
-      <c r="D39" s="8">
-        <f>A7</f>
-        <v>-1.8844537815126045E-3</v>
-      </c>
+      <c r="D39" s="8"/>
       <c r="F39" s="5">
         <v>5</v>
       </c>
       <c r="G39" s="9">
-        <v>8.5765546218487365E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.3640999999999984E-2</v>
       </c>
       <c r="H39" s="8">
         <v>-1.8844537815126045E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>6</v>
       </c>
       <c r="B40" s="9">
-        <f t="shared" si="3"/>
-        <v>0.10029863445378148</v>
+        <f t="shared" si="4"/>
+        <v>9.8640999999999979E-2</v>
       </c>
       <c r="C40" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D40" s="8">
-        <f>A8</f>
-        <v>-1.0466911764705881E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="8"/>
       <c r="F40" s="5">
         <v>6</v>
       </c>
       <c r="G40" s="9">
-        <v>7.5298634453781488E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.3640999999999984E-2</v>
       </c>
       <c r="H40" s="8">
         <v>-1.0466911764705881E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>7</v>
       </c>
       <c r="B41" s="9">
-        <f t="shared" si="3"/>
-        <v>7.2979994747899152E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.8640999999999979E-2</v>
       </c>
       <c r="C41" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D41" s="8">
-        <f>A9</f>
-        <v>-2.7318639705882344E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="8"/>
       <c r="F41" s="5">
         <v>7</v>
       </c>
       <c r="G41" s="9">
-        <v>4.7979994747899143E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.3640999999999984E-2</v>
       </c>
       <c r="H41" s="8">
         <v>-2.7318639705882344E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>8</v>
       </c>
       <c r="B42" s="9">
-        <f t="shared" si="3"/>
-        <v>5.9603281512605029E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.8640999999999979E-2</v>
       </c>
       <c r="C42" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D42" s="8">
-        <f>A10</f>
-        <v>-1.3376713235294116E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="8"/>
       <c r="F42" s="5">
         <v>8</v>
       </c>
       <c r="G42" s="9">
-        <v>3.4603281512605027E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.3640999999999984E-2</v>
       </c>
       <c r="H42" s="8">
         <v>-1.3376713235294116E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>9</v>
       </c>
       <c r="B43" s="9">
-        <f t="shared" si="3"/>
-        <v>5.5977756302520991E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.338574999999999E-2</v>
       </c>
       <c r="C43" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D43" s="8">
-        <f>A11</f>
-        <v>-3.6255252100840327E-3</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="D43" s="8"/>
       <c r="F43" s="5">
         <v>9</v>
       </c>
       <c r="G43" s="9">
-        <v>3.097775630252099E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.8385749999999995E-2</v>
       </c>
       <c r="H43" s="8">
         <v>-3.6255252100840327E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>10</v>
       </c>
       <c r="B44" s="9">
-        <f t="shared" si="3"/>
-        <v>5.0104405462184858E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.84233125E-2</v>
       </c>
       <c r="C44" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D44" s="8">
-        <f>A12</f>
-        <v>-5.8733508403361325E-3</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="D44" s="8"/>
       <c r="F44" s="5">
         <v>10</v>
       </c>
       <c r="G44" s="9">
-        <v>2.5104405462184856E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.3423312500000005E-2</v>
       </c>
       <c r="H44" s="8">
         <v>-5.8733508403361325E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>11</v>
       </c>
       <c r="B45" s="9">
-        <f t="shared" si="3"/>
-        <v>4.4753130252100821E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.5957118750000005E-2</v>
       </c>
       <c r="C45" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D45" s="8">
-        <f>A13</f>
-        <v>-5.3512752100840326E-3</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="D45" s="8"/>
       <c r="F45" s="5">
         <v>11</v>
       </c>
       <c r="G45" s="9">
-        <v>1.975313025210082E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.0957118750000003E-2</v>
       </c>
       <c r="H45" s="8">
         <v>-5.3512752100840326E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>12</v>
       </c>
       <c r="B46" s="9">
-        <f t="shared" si="3"/>
-        <v>2.6614181092436955E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.0304554312500007E-2</v>
       </c>
       <c r="C46" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="D46" s="8">
-        <f>A14</f>
-        <v>-1.8138949159663863E-2</v>
-      </c>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D46" s="8"/>
       <c r="F46" s="5">
         <v>12</v>
       </c>
       <c r="G46" s="9">
-        <v>1.6141810924369532E-3</v>
+        <f t="shared" si="5"/>
+        <v>-4.6954456874999939E-3</v>
       </c>
       <c r="H46" s="8">
         <v>-1.8138949159663863E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>13</v>
       </c>
       <c r="B47" s="9">
-        <f t="shared" si="3"/>
-        <v>2.6810819747899152E-2</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="8">
-        <f>A15</f>
-        <v>6.4310819747899151E-2</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>2.030455431249998E-2</v>
+      </c>
+      <c r="D47" s="8"/>
       <c r="F47" s="5">
         <v>13</v>
       </c>
       <c r="G47" s="9">
-        <v>1.8108197478991506E-3</v>
-      </c>
-      <c r="H47" s="8">
-        <v>6.4310819747899151E-2</v>
+        <f>A15</f>
+        <v>6.2804554312499983E-2</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1999,30 +2033,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22816C5A-BCD6-AE4F-9B75-3AE9C37FC05E}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="9" customFormat="1">
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2066,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1">
+    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>-0.15</v>
       </c>
@@ -2123,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1">
+    <row r="4" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>-0.255</v>
       </c>
@@ -2180,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1">
+    <row r="5" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>-0.17849999999999999</v>
       </c>
@@ -2237,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1">
+    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>-8.3299999999999999E-2</v>
       </c>
@@ -2294,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1">
+    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>-4.1818181818181815E-3</v>
       </c>
@@ -2351,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1">
+    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>-2.3227272727272725E-2</v>
       </c>
@@ -2408,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1">
+    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>-6.0623181818181805E-2</v>
       </c>
@@ -2465,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1">
+    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>-2.9684454545454542E-2</v>
       </c>
@@ -2522,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1">
+    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>-8.0454545454545431E-3</v>
       </c>
@@ -2579,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1">
+    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>-1.303363636363636E-2</v>
       </c>
@@ -2636,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1">
+    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>-1.1875090909090908E-2</v>
       </c>
@@ -2693,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1">
+    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>-4.0252399999999994E-2</v>
       </c>
@@ -2750,7 +2784,7 @@
         <v>-4.0252399999999994E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1">
+    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>0.14271305454545452</v>
       </c>
@@ -2807,21 +2841,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <f>A2</f>
         <v>1</v>
@@ -2838,7 +2872,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <f t="shared" ref="A19:A31" si="0">A3</f>
         <v>-0.15</v>
@@ -2856,7 +2890,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>-0.255</v>
@@ -2874,7 +2908,7 @@
         <v>0.53249999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>-0.17849999999999999</v>
@@ -2892,7 +2926,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>-8.3299999999999999E-2</v>
@@ -2910,7 +2944,7 @@
         <v>0.2707</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>-4.1818181818181815E-3</v>
@@ -2928,7 +2962,7 @@
         <v>0.26651818181818182</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>-2.3227272727272725E-2</v>
@@ -2946,7 +2980,7 @@
         <v>0.24329090909090911</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>-6.0623181818181805E-2</v>
@@ -2964,7 +2998,7 @@
         <v>0.18266772727272731</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>-2.9684454545454542E-2</v>
@@ -2982,7 +3016,7 @@
         <v>0.15298327272727277</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>-8.0454545454545431E-3</v>
@@ -3000,7 +3034,7 @@
         <v>0.14493781818181822</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>-1.303363636363636E-2</v>
@@ -3018,7 +3052,7 @@
         <v>0.13190418181818186</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>-1.1875090909090908E-2</v>
@@ -3036,7 +3070,7 @@
         <v>0.12002909090909095</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>-4.0252399999999994E-2</v>
@@ -3054,7 +3088,7 @@
         <v>7.9776690909090953E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>0.14271305454545452</v>
@@ -3072,12 +3106,12 @@
         <v>0.22248974545454547</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>0</v>
       </c>
@@ -3097,7 +3131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>0</v>
       </c>
@@ -3116,7 +3150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>1</v>
       </c>
@@ -3135,15 +3169,15 @@
         <v>1</v>
       </c>
       <c r="G35" s="9">
-        <f t="shared" ref="G35:G47" si="5">D19</f>
+        <f t="shared" ref="G35:G46" si="5">D19</f>
         <v>0.78749999999999998</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" ref="H35:H47" si="6">B19</f>
+        <f t="shared" ref="H35:H46" si="6">B19</f>
         <v>0.85</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>2</v>
       </c>
@@ -3170,7 +3204,7 @@
         <v>0.59499999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>3</v>
       </c>
@@ -3197,7 +3231,7 @@
         <v>0.41649999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>4</v>
       </c>
@@ -3224,7 +3258,7 @@
         <v>0.3332</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>5</v>
       </c>
@@ -3251,7 +3285,7 @@
         <v>0.32901818181818182</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>6</v>
       </c>
@@ -3278,7 +3312,7 @@
         <v>0.30579090909090911</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>7</v>
       </c>
@@ -3305,7 +3339,7 @@
         <v>0.24516772727272731</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>8</v>
       </c>
@@ -3332,7 +3366,7 @@
         <v>0.21548327272727277</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>9</v>
       </c>
@@ -3359,7 +3393,7 @@
         <v>0.20743781818181822</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>10</v>
       </c>
@@ -3386,7 +3420,7 @@
         <v>0.19440418181818186</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>11</v>
       </c>
@@ -3413,7 +3447,7 @@
         <v>0.18252909090909095</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>12</v>
       </c>
@@ -3440,7 +3474,7 @@
         <v>0.14227669090909095</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>13</v>
       </c>
@@ -3452,11 +3486,11 @@
         <v>13</v>
       </c>
       <c r="G47" s="9">
-        <f>A15+0.05</f>
-        <v>0.19271305454545451</v>
+        <f>A15</f>
+        <v>0.14271305454545452</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3469,30 +3503,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD200F96-D0D6-3048-AB7C-FDCE26C2F4A1}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N15"/>
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="9" customFormat="1">
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3536,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1">
+    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>-0.04</v>
       </c>
@@ -3593,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1">
+    <row r="4" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>-0.11500000000000002</v>
       </c>
@@ -3650,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1">
+    <row r="5" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>-8.4000000000000005E-2</v>
       </c>
@@ -3707,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1">
+    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>-0.1</v>
       </c>
@@ -3764,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1">
+    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>-5.0000000000000001E-3</v>
       </c>
@@ -3821,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1">
+    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>-0.05</v>
       </c>
@@ -3878,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1">
+    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>-0.113</v>
       </c>
@@ -3935,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1">
+    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>-4.3999999999999997E-2</v>
       </c>
@@ -3992,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1">
+    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>-2E-3</v>
       </c>
@@ -4049,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1">
+    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>-1.7999999999999999E-2</v>
       </c>
@@ -4106,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1">
+    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>-1.2999999999999999E-2</v>
       </c>
@@ -4163,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1">
+    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>-9.0999999999999998E-2</v>
       </c>
@@ -4220,7 +4254,7 @@
         <v>-9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1">
+    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>0.32586565535305034</v>
       </c>
@@ -4277,277 +4311,278 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="9">
         <v>1</v>
       </c>
-      <c r="C18" s="4">
-        <f>B18-0.0375</f>
-        <v>0.96250000000000002</v>
+      <c r="C18" s="9">
+        <f>B18-0.0425</f>
+        <v>0.95750000000000002</v>
       </c>
       <c r="D18" s="9">
-        <f>B18-0.0625</f>
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4">
+        <f>B18-0.0675</f>
+        <v>0.9325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
         <f t="shared" ref="A19:A31" si="0">A3</f>
         <v>-0.04</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="9">
         <f>B18+A19</f>
         <v>0.96</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" ref="C19:C31" si="1">B19-0.0375</f>
-        <v>0.92249999999999999</v>
+      <c r="C19" s="9">
+        <f t="shared" ref="C19:C31" si="1">B19-0.0425</f>
+        <v>0.91749999999999998</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" ref="D19:D31" si="2">B19-0.0625</f>
-        <v>0.89749999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
+        <f t="shared" ref="D19:D31" si="2">B19-0.0675</f>
+        <v>0.89249999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>-0.11500000000000002</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="9">
         <f t="shared" ref="B20:B31" si="3">B19+A20</f>
         <v>0.84499999999999997</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="9">
         <f t="shared" si="1"/>
-        <v>0.8075</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="2"/>
-        <v>0.78249999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
+        <v>0.77749999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="9">
         <f t="shared" si="3"/>
         <v>0.76100000000000001</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="9">
         <f t="shared" si="1"/>
-        <v>0.72350000000000003</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="2"/>
-        <v>0.69850000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
+        <v>0.69350000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="9">
         <f t="shared" si="3"/>
         <v>0.66100000000000003</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="9">
         <f t="shared" si="1"/>
-        <v>0.62350000000000005</v>
+        <v>0.61850000000000005</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="2"/>
-        <v>0.59850000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
+        <v>0.59350000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="9">
         <f t="shared" si="3"/>
         <v>0.65600000000000003</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="9">
         <f t="shared" si="1"/>
-        <v>0.61850000000000005</v>
+        <v>0.61350000000000005</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="2"/>
-        <v>0.59350000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
+        <v>0.58850000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>-0.05</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="9">
         <f t="shared" si="3"/>
         <v>0.60599999999999998</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="9">
         <f t="shared" si="1"/>
-        <v>0.56850000000000001</v>
+        <v>0.5635</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="2"/>
-        <v>0.54349999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
+        <v>0.53849999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>-0.113</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="9">
         <f t="shared" si="3"/>
         <v>0.49299999999999999</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="9">
         <f t="shared" si="1"/>
-        <v>0.45550000000000002</v>
+        <v>0.45050000000000001</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="2"/>
-        <v>0.43049999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4">
+        <v>0.42549999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>-4.3999999999999997E-2</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="9">
         <f t="shared" si="3"/>
         <v>0.44900000000000001</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="9">
         <f t="shared" si="1"/>
-        <v>0.41150000000000003</v>
+        <v>0.40650000000000003</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="2"/>
-        <v>0.38650000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
+        <v>0.38150000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>-2E-3</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="9">
         <f t="shared" si="3"/>
         <v>0.44700000000000001</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="9">
         <f t="shared" si="1"/>
-        <v>0.40950000000000003</v>
+        <v>0.40450000000000003</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="2"/>
-        <v>0.38450000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="9">
         <f t="shared" si="3"/>
         <v>0.42899999999999999</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="9">
         <f t="shared" si="1"/>
-        <v>0.39150000000000001</v>
+        <v>0.38650000000000001</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="2"/>
-        <v>0.36649999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4">
+        <v>0.36149999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="9">
         <f t="shared" si="3"/>
         <v>0.41599999999999998</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="9">
         <f t="shared" si="1"/>
-        <v>0.3785</v>
+        <v>0.3735</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" si="2"/>
-        <v>0.35349999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4">
+        <v>0.34849999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>-9.0999999999999998E-2</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="9">
         <f t="shared" si="3"/>
         <v>0.32499999999999996</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="9">
         <f t="shared" si="1"/>
-        <v>0.28749999999999998</v>
+        <v>0.28249999999999997</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="2"/>
-        <v>0.26249999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4">
+        <v>0.25749999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>0.32586565535305034</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="9">
         <f t="shared" si="3"/>
         <v>0.6508656553530503</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="9">
         <f t="shared" si="1"/>
-        <v>0.61336565535305032</v>
+        <v>0.60836565535305032</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" si="2"/>
-        <v>0.5883656553530503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+        <v>0.58336565535305029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>0</v>
       </c>
@@ -4567,32 +4602,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>0</v>
       </c>
       <c r="B34" s="9">
         <f>C18</f>
-        <v>0.96250000000000002</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="F34" s="5">
         <v>0</v>
       </c>
       <c r="G34" s="9">
         <f>D18</f>
-        <v>0.9375</v>
+        <v>0.9325</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>1</v>
       </c>
       <c r="B35" s="9">
         <f t="shared" ref="B35:B47" si="4">C19</f>
-        <v>0.92249999999999999</v>
+        <v>0.91749999999999998</v>
       </c>
       <c r="C35" s="7">
         <f>D35/100</f>
@@ -4606,20 +4641,20 @@
       </c>
       <c r="G35" s="9">
         <f t="shared" ref="G35:G46" si="5">D19</f>
-        <v>0.89749999999999996</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" ref="H35:H46" si="6">B19</f>
         <v>0.96</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>2</v>
       </c>
       <c r="B36" s="9">
         <f t="shared" si="4"/>
-        <v>0.8075</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" ref="C36:C46" si="7">D36/100</f>
@@ -4633,20 +4668,20 @@
       </c>
       <c r="G36" s="9">
         <f t="shared" si="5"/>
-        <v>0.78249999999999997</v>
+        <v>0.77749999999999997</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="6"/>
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>3</v>
       </c>
       <c r="B37" s="9">
         <f t="shared" si="4"/>
-        <v>0.72350000000000003</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="7"/>
@@ -4660,20 +4695,20 @@
       </c>
       <c r="G37" s="9">
         <f t="shared" si="5"/>
-        <v>0.69850000000000001</v>
+        <v>0.69350000000000001</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="6"/>
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>4</v>
       </c>
       <c r="B38" s="9">
         <f t="shared" si="4"/>
-        <v>0.62350000000000005</v>
+        <v>0.61850000000000005</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="7"/>
@@ -4687,20 +4722,20 @@
       </c>
       <c r="G38" s="9">
         <f t="shared" si="5"/>
-        <v>0.59850000000000003</v>
+        <v>0.59350000000000003</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="6"/>
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>5</v>
       </c>
       <c r="B39" s="9">
         <f t="shared" si="4"/>
-        <v>0.61850000000000005</v>
+        <v>0.61350000000000005</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="7"/>
@@ -4714,20 +4749,20 @@
       </c>
       <c r="G39" s="9">
         <f t="shared" si="5"/>
-        <v>0.59350000000000003</v>
+        <v>0.58850000000000002</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" si="6"/>
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>6</v>
       </c>
       <c r="B40" s="9">
         <f t="shared" si="4"/>
-        <v>0.56850000000000001</v>
+        <v>0.5635</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="7"/>
@@ -4741,20 +4776,20 @@
       </c>
       <c r="G40" s="9">
         <f t="shared" si="5"/>
-        <v>0.54349999999999998</v>
+        <v>0.53849999999999998</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" si="6"/>
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>7</v>
       </c>
       <c r="B41" s="9">
         <f t="shared" si="4"/>
-        <v>0.45550000000000002</v>
+        <v>0.45050000000000001</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="7"/>
@@ -4768,20 +4803,20 @@
       </c>
       <c r="G41" s="9">
         <f t="shared" si="5"/>
-        <v>0.43049999999999999</v>
+        <v>0.42549999999999999</v>
       </c>
       <c r="H41" s="8">
         <f t="shared" si="6"/>
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>8</v>
       </c>
       <c r="B42" s="9">
         <f t="shared" si="4"/>
-        <v>0.41150000000000003</v>
+        <v>0.40650000000000003</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="7"/>
@@ -4795,20 +4830,20 @@
       </c>
       <c r="G42" s="9">
         <f t="shared" si="5"/>
-        <v>0.38650000000000001</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="6"/>
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>9</v>
       </c>
       <c r="B43" s="9">
         <f t="shared" si="4"/>
-        <v>0.40950000000000003</v>
+        <v>0.40450000000000003</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="7"/>
@@ -4822,20 +4857,20 @@
       </c>
       <c r="G43" s="9">
         <f t="shared" si="5"/>
-        <v>0.38450000000000001</v>
+        <v>0.3795</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="6"/>
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>10</v>
       </c>
       <c r="B44" s="9">
         <f t="shared" si="4"/>
-        <v>0.39150000000000001</v>
+        <v>0.38650000000000001</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="7"/>
@@ -4849,20 +4884,20 @@
       </c>
       <c r="G44" s="9">
         <f t="shared" si="5"/>
-        <v>0.36649999999999999</v>
+        <v>0.36149999999999999</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" si="6"/>
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>11</v>
       </c>
       <c r="B45" s="9">
         <f t="shared" si="4"/>
-        <v>0.3785</v>
+        <v>0.3735</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="7"/>
@@ -4876,20 +4911,20 @@
       </c>
       <c r="G45" s="9">
         <f t="shared" si="5"/>
-        <v>0.35349999999999998</v>
+        <v>0.34849999999999998</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" si="6"/>
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>12</v>
       </c>
       <c r="B46" s="9">
         <f t="shared" si="4"/>
-        <v>0.28749999999999998</v>
+        <v>0.28249999999999997</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="7"/>
@@ -4903,30 +4938,30 @@
       </c>
       <c r="G46" s="9">
         <f t="shared" si="5"/>
-        <v>0.26249999999999996</v>
+        <v>0.25749999999999995</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="6"/>
         <v>0.32499999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>13</v>
       </c>
       <c r="B47" s="9">
         <f t="shared" si="4"/>
-        <v>0.61336565535305032</v>
+        <v>0.60836565535305032</v>
       </c>
       <c r="F47" s="5">
         <v>13</v>
       </c>
       <c r="G47" s="9">
-        <f>A15+0.05</f>
-        <v>0.37586565535305033</v>
+        <f>A15</f>
+        <v>0.32586565535305034</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4936,16 +4971,1547 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE3AF6-740D-400B-B184-1D9A2E9E4BAB}">
+  <dimension ref="A1:O47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:H47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="B3" s="9" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">IF(CELL("row",$A3)=CELL("col",B3),$A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">IF(CELL("row",$A3)=CELL("col",C3),$A3,0)</f>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="9" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">IF(CELL("row",$A3)=CELL("col",D3),$A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">IF(CELL("row",$A3)=CELL("col",E3),$A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">IF(CELL("row",$A3)=CELL("col",F3),$A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" cm="1">
+        <f t="array" aca="1" ref="G3" ca="1">IF(CELL("row",$A3)=CELL("col",G3),$A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">IF(CELL("row",$A3)=CELL("col",H3),$A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" cm="1">
+        <f t="array" aca="1" ref="I3" ca="1">IF(CELL("row",$A3)=CELL("col",I3),$A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" cm="1">
+        <f t="array" aca="1" ref="J3" ca="1">IF(CELL("row",$A3)=CELL("col",J3),$A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">IF(CELL("row",$A3)=CELL("col",K3),$A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">IF(CELL("row",$A3)=CELL("col",L3),$A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">IF(CELL("row",$A3)=CELL("col",M3),$A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="9" cm="1">
+        <f t="array" aca="1" ref="N3" ca="1">IF(CELL("row",$A3)=CELL("col",N3),$A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="9" cm="1">
+        <f t="array" aca="1" ref="O3" ca="1">IF(CELL("row",$A3)=CELL("col",O3),$A3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>-9.9500000000000005E-2</v>
+      </c>
+      <c r="B4" s="9" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">IF(CELL("row",$A4)=CELL("col",B4),$A4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">IF(CELL("row",$A4)=CELL("col",C4),$A4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">IF(CELL("row",$A4)=CELL("col",D4),$A4,0)</f>
+        <v>-9.9500000000000005E-2</v>
+      </c>
+      <c r="E4" s="9" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">IF(CELL("row",$A4)=CELL("col",E4),$A4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">IF(CELL("row",$A4)=CELL("col",F4),$A4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" cm="1">
+        <f t="array" aca="1" ref="G4" ca="1">IF(CELL("row",$A4)=CELL("col",G4),$A4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" cm="1">
+        <f t="array" aca="1" ref="H4" ca="1">IF(CELL("row",$A4)=CELL("col",H4),$A4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" cm="1">
+        <f t="array" aca="1" ref="I4" ca="1">IF(CELL("row",$A4)=CELL("col",I4),$A4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">IF(CELL("row",$A4)=CELL("col",J4),$A4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">IF(CELL("row",$A4)=CELL("col",K4),$A4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">IF(CELL("row",$A4)=CELL("col",L4),$A4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">IF(CELL("row",$A4)=CELL("col",M4),$A4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="9" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">IF(CELL("row",$A4)=CELL("col",N4),$A4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">IF(CELL("row",$A4)=CELL("col",O4),$A4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>-8.9550000000000005E-2</v>
+      </c>
+      <c r="B5" s="9" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">IF(CELL("row",$A5)=CELL("col",B5),$A5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">IF(CELL("row",$A5)=CELL("col",C5),$A5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">IF(CELL("row",$A5)=CELL("col",D5),$A5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">IF(CELL("row",$A5)=CELL("col",E5),$A5,0)</f>
+        <v>-8.9550000000000005E-2</v>
+      </c>
+      <c r="F5" s="9" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">IF(CELL("row",$A5)=CELL("col",F5),$A5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" cm="1">
+        <f t="array" aca="1" ref="G5" ca="1">IF(CELL("row",$A5)=CELL("col",G5),$A5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">IF(CELL("row",$A5)=CELL("col",H5),$A5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">IF(CELL("row",$A5)=CELL("col",I5),$A5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">IF(CELL("row",$A5)=CELL("col",J5),$A5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">IF(CELL("row",$A5)=CELL("col",K5),$A5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="9" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">IF(CELL("row",$A5)=CELL("col",L5),$A5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">IF(CELL("row",$A5)=CELL("col",M5),$A5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">IF(CELL("row",$A5)=CELL("col",N5),$A5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">IF(CELL("row",$A5)=CELL("col",O5),$A5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>-8.0595E-2</v>
+      </c>
+      <c r="B6" s="9" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">IF(CELL("row",$A6)=CELL("col",B6),$A6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">IF(CELL("row",$A6)=CELL("col",C6),$A6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">IF(CELL("row",$A6)=CELL("col",D6),$A6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">IF(CELL("row",$A6)=CELL("col",E6),$A6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">IF(CELL("row",$A6)=CELL("col",F6),$A6,0)</f>
+        <v>-8.0595E-2</v>
+      </c>
+      <c r="G6" s="9" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">IF(CELL("row",$A6)=CELL("col",G6),$A6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">IF(CELL("row",$A6)=CELL("col",H6),$A6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" cm="1">
+        <f t="array" aca="1" ref="I6" ca="1">IF(CELL("row",$A6)=CELL("col",I6),$A6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">IF(CELL("row",$A6)=CELL("col",J6),$A6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">IF(CELL("row",$A6)=CELL("col",K6),$A6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">IF(CELL("row",$A6)=CELL("col",L6),$A6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">IF(CELL("row",$A6)=CELL("col",M6),$A6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="9" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">IF(CELL("row",$A6)=CELL("col",N6),$A6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="9" cm="1">
+        <f t="array" aca="1" ref="O6" ca="1">IF(CELL("row",$A6)=CELL("col",O6),$A6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>-5.689718501036777E-3</v>
+      </c>
+      <c r="B7" s="9" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">IF(CELL("row",$A7)=CELL("col",B7),$A7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">IF(CELL("row",$A7)=CELL("col",C7),$A7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">IF(CELL("row",$A7)=CELL("col",D7),$A7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">IF(CELL("row",$A7)=CELL("col",E7),$A7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">IF(CELL("row",$A7)=CELL("col",F7),$A7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">IF(CELL("row",$A7)=CELL("col",G7),$A7,0)</f>
+        <v>-5.689718501036777E-3</v>
+      </c>
+      <c r="H7" s="9" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">IF(CELL("row",$A7)=CELL("col",H7),$A7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" cm="1">
+        <f t="array" aca="1" ref="I7" ca="1">IF(CELL("row",$A7)=CELL("col",I7),$A7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">IF(CELL("row",$A7)=CELL("col",J7),$A7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">IF(CELL("row",$A7)=CELL("col",K7),$A7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="9" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">IF(CELL("row",$A7)=CELL("col",L7),$A7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">IF(CELL("row",$A7)=CELL("col",M7),$A7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="9" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">IF(CELL("row",$A7)=CELL("col",N7),$A7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="9" cm="1">
+        <f t="array" aca="1" ref="O7" ca="1">IF(CELL("row",$A7)=CELL("col",O7),$A7,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>-4.938120272314675E-2</v>
+      </c>
+      <c r="B8" s="9" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">IF(CELL("row",$A8)=CELL("col",B8),$A8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">IF(CELL("row",$A8)=CELL("col",C8),$A8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="9" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">IF(CELL("row",$A8)=CELL("col",D8),$A8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">IF(CELL("row",$A8)=CELL("col",E8),$A8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">IF(CELL("row",$A8)=CELL("col",F8),$A8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" cm="1">
+        <f t="array" aca="1" ref="G8" ca="1">IF(CELL("row",$A8)=CELL("col",G8),$A8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" cm="1">
+        <f t="array" aca="1" ref="H8" ca="1">IF(CELL("row",$A8)=CELL("col",H8),$A8,0)</f>
+        <v>-4.938120272314675E-2</v>
+      </c>
+      <c r="I8" s="9" cm="1">
+        <f t="array" aca="1" ref="I8" ca="1">IF(CELL("row",$A8)=CELL("col",I8),$A8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">IF(CELL("row",$A8)=CELL("col",J8),$A8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">IF(CELL("row",$A8)=CELL("col",K8),$A8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="9" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">IF(CELL("row",$A8)=CELL("col",L8),$A8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">IF(CELL("row",$A8)=CELL("col",M8),$A8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="9" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">IF(CELL("row",$A8)=CELL("col",N8),$A8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="9" cm="1">
+        <f t="array" aca="1" ref="O8" ca="1">IF(CELL("row",$A8)=CELL("col",O8),$A8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>-0.12547194183516824</v>
+      </c>
+      <c r="B9" s="9" cm="1">
+        <f t="array" aca="1" ref="B9" ca="1">IF(CELL("row",$A9)=CELL("col",B9),$A9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">IF(CELL("row",$A9)=CELL("col",C9),$A9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="9" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">IF(CELL("row",$A9)=CELL("col",D9),$A9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" cm="1">
+        <f t="array" aca="1" ref="E9" ca="1">IF(CELL("row",$A9)=CELL("col",E9),$A9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" cm="1">
+        <f t="array" aca="1" ref="F9" ca="1">IF(CELL("row",$A9)=CELL("col",F9),$A9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" cm="1">
+        <f t="array" aca="1" ref="G9" ca="1">IF(CELL("row",$A9)=CELL("col",G9),$A9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" cm="1">
+        <f t="array" aca="1" ref="H9" ca="1">IF(CELL("row",$A9)=CELL("col",H9),$A9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" cm="1">
+        <f t="array" aca="1" ref="I9" ca="1">IF(CELL("row",$A9)=CELL("col",I9),$A9,0)</f>
+        <v>-0.12547194183516824</v>
+      </c>
+      <c r="J9" s="9" cm="1">
+        <f t="array" aca="1" ref="J9" ca="1">IF(CELL("row",$A9)=CELL("col",J9),$A9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1">IF(CELL("row",$A9)=CELL("col",K9),$A9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9" cm="1">
+        <f t="array" aca="1" ref="L9" ca="1">IF(CELL("row",$A9)=CELL("col",L9),$A9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1">IF(CELL("row",$A9)=CELL("col",M9),$A9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="9" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">IF(CELL("row",$A9)=CELL("col",N9),$A9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="9" cm="1">
+        <f t="array" aca="1" ref="O9" ca="1">IF(CELL("row",$A9)=CELL("col",O9),$A9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>-4.3989592959429648E-2</v>
+      </c>
+      <c r="B10" s="9" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">IF(CELL("row",$A10)=CELL("col",B10),$A10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">IF(CELL("row",$A10)=CELL("col",C10),$A10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">IF(CELL("row",$A10)=CELL("col",D10),$A10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">IF(CELL("row",$A10)=CELL("col",E10),$A10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" cm="1">
+        <f t="array" aca="1" ref="F10" ca="1">IF(CELL("row",$A10)=CELL("col",F10),$A10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" cm="1">
+        <f t="array" aca="1" ref="G10" ca="1">IF(CELL("row",$A10)=CELL("col",G10),$A10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" cm="1">
+        <f t="array" aca="1" ref="H10" ca="1">IF(CELL("row",$A10)=CELL("col",H10),$A10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" cm="1">
+        <f t="array" aca="1" ref="I10" ca="1">IF(CELL("row",$A10)=CELL("col",I10),$A10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" cm="1">
+        <f t="array" aca="1" ref="J10" ca="1">IF(CELL("row",$A10)=CELL("col",J10),$A10,0)</f>
+        <v>-4.3989592959429648E-2</v>
+      </c>
+      <c r="K10" s="9" cm="1">
+        <f t="array" aca="1" ref="K10" ca="1">IF(CELL("row",$A10)=CELL("col",K10),$A10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9" cm="1">
+        <f t="array" aca="1" ref="L10" ca="1">IF(CELL("row",$A10)=CELL("col",L10),$A10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" cm="1">
+        <f t="array" aca="1" ref="M10" ca="1">IF(CELL("row",$A10)=CELL("col",M10),$A10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="9" cm="1">
+        <f t="array" aca="1" ref="N10" ca="1">IF(CELL("row",$A10)=CELL("col",N10),$A10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="9" cm="1">
+        <f t="array" aca="1" ref="O10" ca="1">IF(CELL("row",$A10)=CELL("col",O10),$A10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>-1.9752481089258698E-3</v>
+      </c>
+      <c r="B11" s="9" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">IF(CELL("row",$A11)=CELL("col",B11),$A11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">IF(CELL("row",$A11)=CELL("col",C11),$A11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="9" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">IF(CELL("row",$A11)=CELL("col",D11),$A11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">IF(CELL("row",$A11)=CELL("col",E11),$A11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" cm="1">
+        <f t="array" aca="1" ref="F11" ca="1">IF(CELL("row",$A11)=CELL("col",F11),$A11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" cm="1">
+        <f t="array" aca="1" ref="G11" ca="1">IF(CELL("row",$A11)=CELL("col",G11),$A11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" cm="1">
+        <f t="array" aca="1" ref="H11" ca="1">IF(CELL("row",$A11)=CELL("col",H11),$A11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" cm="1">
+        <f t="array" aca="1" ref="I11" ca="1">IF(CELL("row",$A11)=CELL("col",I11),$A11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" cm="1">
+        <f t="array" aca="1" ref="J11" ca="1">IF(CELL("row",$A11)=CELL("col",J11),$A11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" cm="1">
+        <f t="array" aca="1" ref="K11" ca="1">IF(CELL("row",$A11)=CELL("col",K11),$A11,0)</f>
+        <v>-1.9752481089258698E-3</v>
+      </c>
+      <c r="L11" s="9" cm="1">
+        <f t="array" aca="1" ref="L11" ca="1">IF(CELL("row",$A11)=CELL("col",L11),$A11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" cm="1">
+        <f t="array" aca="1" ref="M11" ca="1">IF(CELL("row",$A11)=CELL("col",M11),$A11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="9" cm="1">
+        <f t="array" aca="1" ref="N11" ca="1">IF(CELL("row",$A11)=CELL("col",N11),$A11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="9" cm="1">
+        <f t="array" aca="1" ref="O11" ca="1">IF(CELL("row",$A11)=CELL("col",O11),$A11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>-1.977754686167299E-2</v>
+      </c>
+      <c r="B12" s="9" cm="1">
+        <f t="array" aca="1" ref="B12" ca="1">IF(CELL("row",$A12)=CELL("col",B12),$A12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">IF(CELL("row",$A12)=CELL("col",C12),$A12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="9" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">IF(CELL("row",$A12)=CELL("col",D12),$A12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">IF(CELL("row",$A12)=CELL("col",E12),$A12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9" cm="1">
+        <f t="array" aca="1" ref="F12" ca="1">IF(CELL("row",$A12)=CELL("col",F12),$A12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" cm="1">
+        <f t="array" aca="1" ref="G12" ca="1">IF(CELL("row",$A12)=CELL("col",G12),$A12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" cm="1">
+        <f t="array" aca="1" ref="H12" ca="1">IF(CELL("row",$A12)=CELL("col",H12),$A12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" cm="1">
+        <f t="array" aca="1" ref="I12" ca="1">IF(CELL("row",$A12)=CELL("col",I12),$A12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" cm="1">
+        <f t="array" aca="1" ref="J12" ca="1">IF(CELL("row",$A12)=CELL("col",J12),$A12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">IF(CELL("row",$A12)=CELL("col",K12),$A12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">IF(CELL("row",$A12)=CELL("col",L12),$A12,0)</f>
+        <v>-1.977754686167299E-2</v>
+      </c>
+      <c r="M12" s="9" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">IF(CELL("row",$A12)=CELL("col",M12),$A12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="9" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">IF(CELL("row",$A12)=CELL("col",N12),$A12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="9" cm="1">
+        <f t="array" aca="1" ref="O12" ca="1">IF(CELL("row",$A12)=CELL("col",O12),$A12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>-1.2855405460087446E-2</v>
+      </c>
+      <c r="B13" s="9" cm="1">
+        <f t="array" aca="1" ref="B13" ca="1">IF(CELL("row",$A13)=CELL("col",B13),$A13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">IF(CELL("row",$A13)=CELL("col",C13),$A13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">IF(CELL("row",$A13)=CELL("col",D13),$A13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">IF(CELL("row",$A13)=CELL("col",E13),$A13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9" cm="1">
+        <f t="array" aca="1" ref="F13" ca="1">IF(CELL("row",$A13)=CELL("col",F13),$A13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" cm="1">
+        <f t="array" aca="1" ref="G13" ca="1">IF(CELL("row",$A13)=CELL("col",G13),$A13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" cm="1">
+        <f t="array" aca="1" ref="H13" ca="1">IF(CELL("row",$A13)=CELL("col",H13),$A13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" cm="1">
+        <f t="array" aca="1" ref="I13" ca="1">IF(CELL("row",$A13)=CELL("col",I13),$A13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" cm="1">
+        <f t="array" aca="1" ref="J13" ca="1">IF(CELL("row",$A13)=CELL("col",J13),$A13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">IF(CELL("row",$A13)=CELL("col",K13),$A13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1">IF(CELL("row",$A13)=CELL("col",L13),$A13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1">IF(CELL("row",$A13)=CELL("col",M13),$A13,0)</f>
+        <v>-1.2855405460087446E-2</v>
+      </c>
+      <c r="N13" s="9" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">IF(CELL("row",$A13)=CELL("col",N13),$A13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="9" cm="1">
+        <f t="array" aca="1" ref="O13" ca="1">IF(CELL("row",$A13)=CELL("col",O13),$A13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>-7.9417927457393803E-2</v>
+      </c>
+      <c r="B14" s="9" cm="1">
+        <f t="array" aca="1" ref="B14" ca="1">IF(CELL("row",$A14)=CELL("col",B14),$A14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">IF(CELL("row",$A14)=CELL("col",C14),$A14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">IF(CELL("row",$A14)=CELL("col",D14),$A14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">IF(CELL("row",$A14)=CELL("col",E14),$A14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" cm="1">
+        <f t="array" aca="1" ref="F14" ca="1">IF(CELL("row",$A14)=CELL("col",F14),$A14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" cm="1">
+        <f t="array" aca="1" ref="G14" ca="1">IF(CELL("row",$A14)=CELL("col",G14),$A14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">IF(CELL("row",$A14)=CELL("col",H14),$A14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" cm="1">
+        <f t="array" aca="1" ref="I14" ca="1">IF(CELL("row",$A14)=CELL("col",I14),$A14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" cm="1">
+        <f t="array" aca="1" ref="J14" ca="1">IF(CELL("row",$A14)=CELL("col",J14),$A14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1">IF(CELL("row",$A14)=CELL("col",K14),$A14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1">IF(CELL("row",$A14)=CELL("col",L14),$A14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" cm="1">
+        <f t="array" aca="1" ref="M14" ca="1">IF(CELL("row",$A14)=CELL("col",M14),$A14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="9" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">IF(CELL("row",$A14)=CELL("col",N14),$A14,0)</f>
+        <v>-7.9417927457393803E-2</v>
+      </c>
+      <c r="O14" s="9" cm="1">
+        <f t="array" aca="1" ref="O14" ca="1">IF(CELL("row",$A14)=CELL("col",O14),$A14,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>0.38774635170374616</v>
+      </c>
+      <c r="B15" s="9" cm="1">
+        <f t="array" aca="1" ref="B15" ca="1">IF(CELL("row",$A15)=CELL("col",B15),$A15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" cm="1">
+        <f t="array" aca="1" ref="C15" ca="1">IF(CELL("row",$A15)=CELL("col",C15),$A15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="9" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">IF(CELL("row",$A15)=CELL("col",D15),$A15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">IF(CELL("row",$A15)=CELL("col",E15),$A15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" cm="1">
+        <f t="array" aca="1" ref="F15" ca="1">IF(CELL("row",$A15)=CELL("col",F15),$A15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" cm="1">
+        <f t="array" aca="1" ref="G15" ca="1">IF(CELL("row",$A15)=CELL("col",G15),$A15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" cm="1">
+        <f t="array" aca="1" ref="H15" ca="1">IF(CELL("row",$A15)=CELL("col",H15),$A15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" cm="1">
+        <f t="array" aca="1" ref="I15" ca="1">IF(CELL("row",$A15)=CELL("col",I15),$A15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" cm="1">
+        <f t="array" aca="1" ref="J15" ca="1">IF(CELL("row",$A15)=CELL("col",J15),$A15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" cm="1">
+        <f t="array" aca="1" ref="K15" ca="1">IF(CELL("row",$A15)=CELL("col",K15),$A15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="9" cm="1">
+        <f t="array" aca="1" ref="L15" ca="1">IF(CELL("row",$A15)=CELL("col",L15),$A15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" cm="1">
+        <f t="array" aca="1" ref="M15" ca="1">IF(CELL("row",$A15)=CELL("col",M15),$A15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="9" cm="1">
+        <f t="array" aca="1" ref="N15" ca="1">IF(CELL("row",$A15)=CELL("col",N15),$A15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="9" cm="1">
+        <f t="array" aca="1" ref="O15" ca="1">IF(CELL("row",$A15)=CELL("col",O15),$A15,0)</f>
+        <v>0.38774635170374616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <f t="shared" ref="A18:A31" si="0">A2</f>
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <f>B18-0.0425</f>
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="D18" s="9">
+        <f>B18-0.0675</f>
+        <v>0.9325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="B19" s="3">
+        <f>B18+A19</f>
+        <v>0.995</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" ref="C19:C31" si="1">B19-0.0425</f>
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" ref="D19:D31" si="2">B19-0.0675</f>
+        <v>0.92749999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>-9.9500000000000005E-2</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" ref="B20:B31" si="3">B19+A20</f>
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="1"/>
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="2"/>
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
+        <v>-8.9550000000000005E-2</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.80594999999999994</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.76344999999999996</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="2"/>
+        <v>0.73844999999999994</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H21" s="5">
+        <f>G22-G21</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
+        <v>-8.0595E-2</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.72535499999999997</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="1"/>
+        <v>0.68285499999999999</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="2"/>
+        <v>0.65785499999999997</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <f t="shared" si="0"/>
+        <v>-5.689718501036777E-3</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.71966528149896325</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.67716528149896327</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="2"/>
+        <v>0.65216528149896325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <f t="shared" si="0"/>
+        <v>-4.938120272314675E-2</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.67028407877581653</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="1"/>
+        <v>0.62778407877581655</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="2"/>
+        <v>0.60278407877581652</v>
+      </c>
+      <c r="G24" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H24" s="5">
+        <f>G24+H21</f>
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.12547194183516824</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.54481213694064823</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="1"/>
+        <v>0.50231213694064825</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="2"/>
+        <v>0.47731213694064822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <f t="shared" si="0"/>
+        <v>-4.3989592959429648E-2</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.50082254398121862</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="1"/>
+        <v>0.45832254398121863</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="2"/>
+        <v>0.43332254398121861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.9752481089258698E-3</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="3"/>
+        <v>0.49884729587229276</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="1"/>
+        <v>0.45634729587229278</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="2"/>
+        <v>0.43134729587229276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.977754686167299E-2</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.47906974901061977</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="1"/>
+        <v>0.43656974901061979</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="2"/>
+        <v>0.41156974901061977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.2855405460087446E-2</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.46621434355053232</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="1"/>
+        <v>0.42371434355053234</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="2"/>
+        <v>0.39871434355053231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
+        <v>-7.9417927457393803E-2</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.38679641609313853</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="1"/>
+        <v>0.34429641609313855</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="2"/>
+        <v>0.31929641609313852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.38774635170374616</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.77454276779688469</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="1"/>
+        <v>0.73204276779688471</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="2"/>
+        <v>0.70704276779688469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>0</v>
+      </c>
+      <c r="B34" s="9">
+        <f>C18</f>
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <f>D18</f>
+        <v>0.9325</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>1</v>
+      </c>
+      <c r="B35" s="9">
+        <f t="shared" ref="B35:B47" si="4">C19</f>
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="C35" s="7">
+        <f>D35/100</f>
+        <v>0.04</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" ref="G35:G46" si="5">D19</f>
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>2</v>
+      </c>
+      <c r="B36" s="9">
+        <f t="shared" si="4"/>
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="C36" s="7">
+        <f t="shared" ref="C36:C46" si="6">D36/100</f>
+        <v>0.1197916666666667</v>
+      </c>
+      <c r="D36" s="1">
+        <v>11.97916666666667</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="5"/>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="H36" s="3">
+        <v>-9.9500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>3</v>
+      </c>
+      <c r="B37" s="9">
+        <f t="shared" si="4"/>
+        <v>0.76344999999999996</v>
+      </c>
+      <c r="C37" s="7">
+        <f t="shared" si="6"/>
+        <v>9.940828402366865E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9.9408284023668649</v>
+      </c>
+      <c r="F37" s="5">
+        <v>3</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="5"/>
+        <v>0.73844999999999994</v>
+      </c>
+      <c r="H37" s="3">
+        <v>-8.9550000000000005E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>4</v>
+      </c>
+      <c r="B38" s="9">
+        <f t="shared" si="4"/>
+        <v>0.68285499999999999</v>
+      </c>
+      <c r="C38" s="7">
+        <f t="shared" si="6"/>
+        <v>0.13140604467805519</v>
+      </c>
+      <c r="D38" s="1">
+        <v>13.140604467805518</v>
+      </c>
+      <c r="F38" s="5">
+        <v>4</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="5"/>
+        <v>0.65785499999999997</v>
+      </c>
+      <c r="H38" s="3">
+        <v>-8.0595E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>5</v>
+      </c>
+      <c r="B39" s="9">
+        <f t="shared" si="4"/>
+        <v>0.67716528149896327</v>
+      </c>
+      <c r="C39" s="7">
+        <f t="shared" si="6"/>
+        <v>0.12054199828981124</v>
+      </c>
+      <c r="D39" s="1">
+        <v>12.054199828981124</v>
+      </c>
+      <c r="F39" s="5">
+        <v>5</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="5"/>
+        <v>0.65216528149896325</v>
+      </c>
+      <c r="H39" s="3">
+        <v>-5.689718501036777E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>6</v>
+      </c>
+      <c r="B40" s="9">
+        <f t="shared" si="4"/>
+        <v>0.62778407877581655</v>
+      </c>
+      <c r="C40" s="7">
+        <f t="shared" si="6"/>
+        <v>0.10851138789298076</v>
+      </c>
+      <c r="D40" s="1">
+        <v>10.851138789298076</v>
+      </c>
+      <c r="F40" s="5">
+        <v>6</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="5"/>
+        <v>0.60278407877581652</v>
+      </c>
+      <c r="H40" s="3">
+        <v>-4.938120272314675E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>7</v>
+      </c>
+      <c r="B41" s="9">
+        <f t="shared" si="4"/>
+        <v>0.50231213694064825</v>
+      </c>
+      <c r="C41" s="7">
+        <f t="shared" si="6"/>
+        <v>0.27508566380733201</v>
+      </c>
+      <c r="D41" s="1">
+        <v>27.5085663807332</v>
+      </c>
+      <c r="F41" s="5">
+        <v>7</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" si="5"/>
+        <v>0.47731213694064822</v>
+      </c>
+      <c r="H41" s="3">
+        <v>-0.12547194183516824</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>8</v>
+      </c>
+      <c r="B42" s="9">
+        <f t="shared" si="4"/>
+        <v>0.45832254398121863</v>
+      </c>
+      <c r="C42" s="7">
+        <f t="shared" si="6"/>
+        <v>0.14775953031782049</v>
+      </c>
+      <c r="D42" s="1">
+        <v>14.77595303178205</v>
+      </c>
+      <c r="F42" s="5">
+        <v>8</v>
+      </c>
+      <c r="G42" s="9">
+        <f t="shared" si="5"/>
+        <v>0.43332254398121861</v>
+      </c>
+      <c r="H42" s="3">
+        <v>-4.3989592959429648E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>9</v>
+      </c>
+      <c r="B43" s="9">
+        <f t="shared" si="4"/>
+        <v>0.45634729587229278</v>
+      </c>
+      <c r="C43" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2530919596228967E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.2530919596228967</v>
+      </c>
+      <c r="F43" s="5">
+        <v>9</v>
+      </c>
+      <c r="G43" s="9">
+        <f t="shared" si="5"/>
+        <v>0.43134729587229276</v>
+      </c>
+      <c r="H43" s="3">
+        <v>-1.9752481089258698E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>10</v>
+      </c>
+      <c r="B44" s="9">
+        <f t="shared" si="4"/>
+        <v>0.43656974901061979</v>
+      </c>
+      <c r="C44" s="7">
+        <f t="shared" si="6"/>
+        <v>0.11420942549405823</v>
+      </c>
+      <c r="D44" s="1">
+        <v>11.420942549405822</v>
+      </c>
+      <c r="F44" s="5">
+        <v>10</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="5"/>
+        <v>0.41156974901061977</v>
+      </c>
+      <c r="H44" s="3">
+        <v>-1.977754686167299E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>11</v>
+      </c>
+      <c r="B45" s="9">
+        <f t="shared" si="4"/>
+        <v>0.42371434355053234</v>
+      </c>
+      <c r="C45" s="7">
+        <f t="shared" si="6"/>
+        <v>9.311973671095862E-2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9.3119736710958616</v>
+      </c>
+      <c r="F45" s="5">
+        <v>11</v>
+      </c>
+      <c r="G45" s="9">
+        <f t="shared" si="5"/>
+        <v>0.39871434355053231</v>
+      </c>
+      <c r="H45" s="3">
+        <v>-1.2855405460087446E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>12</v>
+      </c>
+      <c r="B46" s="9">
+        <f t="shared" si="4"/>
+        <v>0.34429641609313855</v>
+      </c>
+      <c r="C46" s="7">
+        <f t="shared" si="6"/>
+        <v>0.2182957478781278</v>
+      </c>
+      <c r="D46" s="1">
+        <v>21.829574787812781</v>
+      </c>
+      <c r="F46" s="5">
+        <v>12</v>
+      </c>
+      <c r="G46" s="9">
+        <f t="shared" si="5"/>
+        <v>0.31929641609313852</v>
+      </c>
+      <c r="H46" s="3">
+        <v>-7.9417927457393803E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>13</v>
+      </c>
+      <c r="B47" s="9">
+        <f t="shared" si="4"/>
+        <v>0.73204276779688471</v>
+      </c>
+      <c r="F47" s="5">
+        <v>13</v>
+      </c>
+      <c r="G47" s="9">
+        <f>A15</f>
+        <v>0.38774635170374616</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102D965C-C74F-644D-923B-E05D7690B6B1}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1">
+    <row r="1" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9">
         <v>1</v>
       </c>
@@ -4989,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1">
+    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>0</v>
       </c>
@@ -5033,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1">
+    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -5077,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1">
+    <row r="4" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>0</v>
       </c>
@@ -5121,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1">
+    <row r="5" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -5165,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1">
+    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>0</v>
       </c>
@@ -5209,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1">
+    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>0</v>
       </c>
@@ -5253,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1">
+    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>0</v>
       </c>
@@ -5297,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1">
+    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>0</v>
       </c>
@@ -5341,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1">
+    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>0</v>
       </c>
@@ -5385,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1">
+    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>0</v>
       </c>
@@ -5429,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1">
+    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>0</v>
       </c>
@@ -5473,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1">
+    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>0</v>
       </c>
@@ -5517,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1">
+    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>0</v>
       </c>
@@ -5561,7 +7127,7 @@
         <v>0.32586565535305034</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5605,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5649,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -5693,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -5737,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5781,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -5825,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -5869,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -5913,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -5957,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -6001,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
@@ -6045,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -6089,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -6133,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
